--- a/IMED/RDPP Final/Page 57 30%^Allowance Details Breakup.xlsx
+++ b/IMED/RDPP Final/Page 57 30%^Allowance Details Breakup.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_26_07_2020\cmis6\IMED\RDPP Final\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20052" windowHeight="7956"/>
   </bookViews>
   <sheets>
     <sheet name="30% Allowance (Edit)" sheetId="7" r:id="rId1"/>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'30% Allowance (Edit)'!$A$1:$V$31</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -202,8 +207,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,17 +567,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -580,23 +579,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -605,6 +598,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -623,23 +628,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,6 +652,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -693,7 +706,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -725,9 +738,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -759,6 +773,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -934,78 +949,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="9" width="7.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" customWidth="1"/>
-    <col min="20" max="20" width="7.28515625" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" customWidth="1"/>
-    <col min="23" max="23" width="5.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="9" width="7.44140625" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" customWidth="1"/>
+    <col min="20" max="20" width="7.33203125" customWidth="1"/>
+    <col min="21" max="21" width="10.44140625" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" customWidth="1"/>
+    <col min="23" max="23" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
     </row>
-    <row r="2" spans="1:23" ht="18.75">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
     </row>
-    <row r="3" spans="1:23" ht="6" customHeight="1">
+    <row r="3" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1029,7 +1044,7 @@
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
     </row>
-    <row r="4" spans="1:23" ht="17.25" customHeight="1">
+    <row r="4" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>0</v>
       </c>
@@ -1042,46 +1057,46 @@
       <c r="D4" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="57"/>
+      <c r="G4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35" t="s">
+      <c r="H4" s="57"/>
+      <c r="I4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35" t="s">
+      <c r="J4" s="57"/>
+      <c r="K4" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35" t="s">
+      <c r="N4" s="57"/>
+      <c r="O4" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35" t="s">
+      <c r="R4" s="57"/>
+      <c r="S4" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="35"/>
-      <c r="U4" s="54" t="s">
+      <c r="T4" s="57"/>
+      <c r="U4" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="V4" s="57" t="s">
+      <c r="V4" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="21.75" customHeight="1">
+    <row r="5" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
       <c r="B5" s="50"/>
       <c r="C5" s="47"/>
@@ -1136,10 +1151,10 @@
       <c r="T5" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="55"/>
-      <c r="V5" s="57"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="39"/>
     </row>
-    <row r="6" spans="1:23" ht="21.75" customHeight="1">
+    <row r="6" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="48"/>
       <c r="B6" s="51"/>
       <c r="C6" s="48"/>
@@ -1194,10 +1209,10 @@
       <c r="T6" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="U6" s="56"/>
-      <c r="V6" s="57"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="39"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="6">
         <v>1</v>
@@ -1263,14 +1278,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="45">
-      <c r="A8" s="38">
+    <row r="8" spans="1:23" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="42">
         <v>1</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="42">
         <v>1</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -1324,11 +1339,11 @@
       <c r="T8" s="15">
         <v>12</v>
       </c>
-      <c r="U8" s="36">
+      <c r="U8" s="34">
         <f>F9+H9+J9+L9+N9+P9+R9+T9</f>
         <v>1692333</v>
       </c>
-      <c r="V8" s="52">
+      <c r="V8" s="32">
         <f>U8/100000</f>
         <v>16.92333</v>
       </c>
@@ -1337,10 +1352,10 @@
         <v>475749</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="45">
-      <c r="A9" s="39"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="39"/>
+    <row r="9" spans="1:23" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="43"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="21" t="s">
         <v>51</v>
       </c>
@@ -1408,17 +1423,17 @@
         <f>S9*T8</f>
         <v>265392</v>
       </c>
-      <c r="U9" s="37"/>
-      <c r="V9" s="53"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="33"/>
     </row>
-    <row r="10" spans="1:23" ht="23.25">
-      <c r="A10" s="38">
+    <row r="10" spans="1:23" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="42">
         <v>2</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="42">
         <v>1</v>
       </c>
       <c r="D10" s="29" t="s">
@@ -1472,11 +1487,11 @@
       <c r="T10" s="15">
         <v>12</v>
       </c>
-      <c r="U10" s="36">
+      <c r="U10" s="34">
         <f>F11+H11+J11+L11+N11+P11+R11+T11</f>
         <v>1672230</v>
       </c>
-      <c r="V10" s="52">
+      <c r="V10" s="32">
         <f>U10/100000</f>
         <v>16.722300000000001</v>
       </c>
@@ -1485,10 +1500,10 @@
         <v>448374</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="26.25" customHeight="1">
-      <c r="A11" s="39"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="39"/>
+    <row r="11" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="43"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="30" t="s">
         <v>18</v>
       </c>
@@ -1556,17 +1571,17 @@
         <f>S11*T10</f>
         <v>256320</v>
       </c>
-      <c r="U11" s="37"/>
-      <c r="V11" s="53"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="33"/>
     </row>
-    <row r="12" spans="1:23" ht="24" customHeight="1">
-      <c r="A12" s="38">
+    <row r="12" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42">
         <v>3</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="42">
         <v>4</v>
       </c>
       <c r="D12" s="29" t="s">
@@ -1622,11 +1637,11 @@
       <c r="T12" s="15">
         <v>48</v>
       </c>
-      <c r="U12" s="36">
+      <c r="U12" s="34">
         <f>F13+H13+J13+L13+N13+P13+R13+T13</f>
         <v>4414896</v>
       </c>
-      <c r="V12" s="52">
+      <c r="V12" s="32">
         <f t="shared" ref="V12:V28" si="0">U12/100000</f>
         <v>44.148960000000002</v>
       </c>
@@ -1635,10 +1650,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="23.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="39"/>
+    <row r="13" spans="1:23" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="43"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="30" t="s">
         <v>20</v>
       </c>
@@ -1706,17 +1721,17 @@
         <f>S13*T12</f>
         <v>962496</v>
       </c>
-      <c r="U13" s="37"/>
-      <c r="V13" s="53"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="33"/>
     </row>
-    <row r="14" spans="1:23" ht="36" customHeight="1">
-      <c r="A14" s="38">
+    <row r="14" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42">
         <v>4</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="42">
         <v>1</v>
       </c>
       <c r="D14" s="29" t="s">
@@ -1770,11 +1785,11 @@
       <c r="T14" s="15">
         <v>12</v>
       </c>
-      <c r="U14" s="36">
+      <c r="U14" s="34">
         <f>F15+H15+J15+L15+N15+P15+R15+T15</f>
         <v>1461648</v>
       </c>
-      <c r="V14" s="52">
+      <c r="V14" s="32">
         <f t="shared" si="0"/>
         <v>14.616479999999999</v>
       </c>
@@ -1783,10 +1798,10 @@
         <v>289452</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="34.5">
-      <c r="A15" s="39"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="39"/>
+    <row r="15" spans="1:23" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A15" s="43"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="30" t="s">
         <v>29</v>
       </c>
@@ -1854,17 +1869,17 @@
         <f>S15*T14</f>
         <v>256320</v>
       </c>
-      <c r="U15" s="37"/>
-      <c r="V15" s="53"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="33"/>
     </row>
-    <row r="16" spans="1:23" ht="24" customHeight="1">
-      <c r="A16" s="38">
+    <row r="16" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42">
         <v>5</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="42">
         <v>1</v>
       </c>
       <c r="D16" s="29" t="s">
@@ -1921,11 +1936,11 @@
       <c r="T16" s="15">
         <v>12</v>
       </c>
-      <c r="U16" s="36">
+      <c r="U16" s="34">
         <f>F17+H17+J17+L17+N17+P17+R17+T17</f>
         <v>507024</v>
       </c>
-      <c r="V16" s="52">
+      <c r="V16" s="32">
         <f t="shared" si="0"/>
         <v>5.0702400000000001</v>
       </c>
@@ -1934,10 +1949,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="23.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="39"/>
+    <row r="17" spans="1:23" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="43"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="30" t="s">
         <v>31</v>
       </c>
@@ -2005,17 +2020,17 @@
         <f>S17*T16</f>
         <v>111564</v>
       </c>
-      <c r="U17" s="37"/>
-      <c r="V17" s="53"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="33"/>
     </row>
-    <row r="18" spans="1:23" ht="36" customHeight="1">
-      <c r="A18" s="38">
+    <row r="18" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="42">
         <v>6</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="42">
         <v>1</v>
       </c>
       <c r="D18" s="29" t="s">
@@ -2072,11 +2087,11 @@
       <c r="T18" s="15">
         <v>12</v>
       </c>
-      <c r="U18" s="36">
+      <c r="U18" s="34">
         <f>F19+H19+J19+L19+N19+P19+R19+T19</f>
         <v>1103724</v>
       </c>
-      <c r="V18" s="52">
+      <c r="V18" s="32">
         <f t="shared" si="0"/>
         <v>11.037240000000001</v>
       </c>
@@ -2085,10 +2100,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="34.5">
-      <c r="A19" s="39"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="39"/>
+    <row r="19" spans="1:23" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A19" s="43"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="30" t="s">
         <v>33</v>
       </c>
@@ -2156,17 +2171,17 @@
         <f>S19*T18</f>
         <v>240624</v>
       </c>
-      <c r="U19" s="37"/>
-      <c r="V19" s="53"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="33"/>
     </row>
-    <row r="20" spans="1:23" ht="24" customHeight="1">
-      <c r="A20" s="38">
+    <row r="20" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="42">
         <v>7</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="42">
         <v>1</v>
       </c>
       <c r="D20" s="29" t="s">
@@ -2220,11 +2235,11 @@
       <c r="T20" s="15">
         <v>12</v>
       </c>
-      <c r="U20" s="36">
+      <c r="U20" s="34">
         <f>F21+H21+J21+L21+N21+P21+R21+T21</f>
         <v>1098822</v>
       </c>
-      <c r="V20" s="52">
+      <c r="V20" s="32">
         <f t="shared" si="0"/>
         <v>10.98822</v>
       </c>
@@ -2233,10 +2248,10 @@
         <v>280938</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="23.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="39"/>
+    <row r="21" spans="1:23" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="43"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="30" t="s">
         <v>35</v>
       </c>
@@ -2304,17 +2319,17 @@
         <f>S21*T20</f>
         <v>179928</v>
       </c>
-      <c r="U21" s="37"/>
-      <c r="V21" s="53"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="33"/>
     </row>
-    <row r="22" spans="1:23" ht="36" customHeight="1">
-      <c r="A22" s="38">
+    <row r="22" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="42">
         <v>8</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="42">
         <v>1</v>
       </c>
       <c r="D22" s="29" t="s">
@@ -2370,11 +2385,11 @@
       <c r="T22" s="15">
         <v>12</v>
       </c>
-      <c r="U22" s="36">
+      <c r="U22" s="34">
         <f>F23+H23+J23+L23+N23+P23+R23+T23</f>
         <v>1096452</v>
       </c>
-      <c r="V22" s="52">
+      <c r="V22" s="32">
         <f t="shared" si="0"/>
         <v>10.96452</v>
       </c>
@@ -2383,10 +2398,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="38.25" customHeight="1">
-      <c r="A23" s="39"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="39"/>
+    <row r="23" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="43"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="30" t="s">
         <v>37</v>
       </c>
@@ -2454,17 +2469,17 @@
         <f>S23*T22</f>
         <v>241236</v>
       </c>
-      <c r="U23" s="37"/>
-      <c r="V23" s="53"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="33"/>
     </row>
-    <row r="24" spans="1:23" ht="24" customHeight="1">
-      <c r="A24" s="38">
+    <row r="24" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="42">
         <v>9</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="42">
         <v>1</v>
       </c>
       <c r="D24" s="29" t="s">
@@ -2520,11 +2535,11 @@
       <c r="T24" s="15">
         <v>12</v>
       </c>
-      <c r="U24" s="36">
+      <c r="U24" s="34">
         <f>F25+H25+J25+L25+N25+P25+R25+T25</f>
         <v>565248</v>
       </c>
-      <c r="V24" s="52">
+      <c r="V24" s="32">
         <f t="shared" si="0"/>
         <v>5.6524799999999997</v>
       </c>
@@ -2533,10 +2548,10 @@
         <v>58224</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="23.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="39"/>
+    <row r="25" spans="1:23" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="43"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="30" t="s">
         <v>31</v>
       </c>
@@ -2604,17 +2619,17 @@
         <f>S25*T24</f>
         <v>111564</v>
       </c>
-      <c r="U25" s="37"/>
-      <c r="V25" s="53"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="33"/>
     </row>
-    <row r="26" spans="1:23" ht="27.75" customHeight="1">
-      <c r="A26" s="38">
+    <row r="26" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="42">
         <v>10</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="42">
         <v>1</v>
       </c>
       <c r="D26" s="29" t="s">
@@ -2671,11 +2686,11 @@
       <c r="T26" s="15">
         <v>12</v>
       </c>
-      <c r="U26" s="36">
+      <c r="U26" s="34">
         <f>F27+H27+J27+L27+N27+P27+R27+T27</f>
         <v>507024</v>
       </c>
-      <c r="V26" s="52">
+      <c r="V26" s="32">
         <f t="shared" si="0"/>
         <v>5.0702400000000001</v>
       </c>
@@ -2684,10 +2699,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="23.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="39"/>
+    <row r="27" spans="1:23" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="43"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="30" t="s">
         <v>31</v>
       </c>
@@ -2755,17 +2770,17 @@
         <f>S27*T26</f>
         <v>111564</v>
       </c>
-      <c r="U27" s="37"/>
-      <c r="V27" s="53"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="33"/>
     </row>
-    <row r="28" spans="1:23" ht="24" customHeight="1">
-      <c r="A28" s="38">
+    <row r="28" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="42">
         <v>11</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="42">
         <v>1</v>
       </c>
       <c r="D28" s="29" t="s">
@@ -2820,11 +2835,11 @@
       <c r="T28" s="15">
         <v>12</v>
       </c>
-      <c r="U28" s="36">
+      <c r="U28" s="34">
         <f>F29+H29+J29+L29+N29+P29+R29+T29</f>
         <v>496476</v>
       </c>
-      <c r="V28" s="52">
+      <c r="V28" s="32">
         <f t="shared" si="0"/>
         <v>4.9647600000000001</v>
       </c>
@@ -2833,10 +2848,10 @@
         <v>93168</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="23.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="39"/>
+    <row r="29" spans="1:23" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="43"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="30" t="s">
         <v>39</v>
       </c>
@@ -2904,10 +2919,10 @@
         <f>S29*T28</f>
         <v>89532</v>
       </c>
-      <c r="U29" s="37"/>
-      <c r="V29" s="53"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="33"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="10"/>
       <c r="C30" s="13">
@@ -2919,21 +2934,21 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="32" t="s">
+      <c r="I30" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="34"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="56"/>
       <c r="V30" s="31">
         <f>SUM(V8:V28)</f>
         <v>146.15877</v>
@@ -2941,6 +2956,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="I30:U30"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="U10:U11"/>
     <mergeCell ref="V28:V29"/>
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="U22:U23"/>
@@ -2957,61 +3027,6 @@
     <mergeCell ref="V20:V21"/>
     <mergeCell ref="U12:U13"/>
     <mergeCell ref="V10:V11"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="I30:U30"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U28:U29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.66" right="0.25" top="0.39" bottom="0.17" header="0.3" footer="0.17"/>
